--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Egf-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Egf-Erbb4.xlsx
@@ -528,22 +528,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.05056099999999999</v>
+        <v>0.04983966666666667</v>
       </c>
       <c r="H2">
-        <v>0.151683</v>
+        <v>0.149519</v>
       </c>
       <c r="I2">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
       <c r="J2">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0003585111973333333</v>
+        <v>0.0003533964631111111</v>
       </c>
       <c r="R2">
-        <v>0.003226600776</v>
+        <v>0.003180568168</v>
       </c>
       <c r="S2">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
       <c r="T2">
-        <v>0.1845256053410153</v>
+        <v>0.1823731600337622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.3305169999999999</v>
       </c>
       <c r="I3">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
       <c r="J3">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -632,10 +632,10 @@
         <v>0.007030757623999999</v>
       </c>
       <c r="S3">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
       <c r="T3">
-        <v>0.4020809813920896</v>
+        <v>0.4031422744592926</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>0.339816</v>
       </c>
       <c r="I4">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069452</v>
       </c>
       <c r="J4">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069451</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -694,10 +694,10 @@
         <v>0.007228565952</v>
       </c>
       <c r="S4">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069452</v>
       </c>
       <c r="T4">
-        <v>0.413393413266895</v>
+        <v>0.4144845655069451</v>
       </c>
     </row>
   </sheetData>
